--- a/data/takipozet_sanayi.xlsx
+++ b/data/takipozet_sanayi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uguraskar\Documents\Github\pjournal_mef04-uguraskar\mef04-uguraskar\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3AA3DA-8056-4920-B7BE-C40E0BECD170}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAFC456-1841-41FA-8D61-44E379C789B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3390" windowWidth="21600" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3915" windowWidth="21600" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="isyatirim" sheetId="1" r:id="rId1"/>
@@ -182,10 +182,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
   </fonts>
   <fills count="2">
@@ -208,9 +214,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +622,7 @@
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1">
